--- a/REGULAR/CCT/JAVIER, CARMELITA M..xlsx
+++ b/REGULAR/CCT/JAVIER, CARMELITA M..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CCT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4EE44E-086B-4888-931B-02CF745C9612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896CFC1C-D4A2-42A1-862D-A7CA67159F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="299">
   <si>
     <t>PERIOD</t>
   </si>
@@ -922,6 +922,15 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>10/23,24/2023</t>
+  </si>
+  <si>
+    <t>12/27-29/2023</t>
+  </si>
+  <si>
+    <t>11/17,20,21,22,23,24/2023</t>
   </si>
 </sst>
 </file>
@@ -1542,6 +1551,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1549,12 +1564,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1619,8 +1628,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K592" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K592" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K594" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K594" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
@@ -1949,12 +1958,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K592"/>
+  <dimension ref="A2:K594"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4428" topLeftCell="A518"/>
-      <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="C533" sqref="C533:C542"/>
+      <pane ySplit="4428" topLeftCell="A527" activePane="bottomLeft"/>
+      <selection activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="E534" sqref="E534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2115,7 +2124,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>74.41</v>
+        <v>60.66</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2125,7 +2134,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>97.749999999999972</v>
+        <v>76.999999999999972</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -13327,11 +13336,15 @@
       <c r="A529" s="40">
         <v>45230</v>
       </c>
-      <c r="B529" s="20"/>
+      <c r="B529" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C529" s="13">
         <v>1.25</v>
       </c>
-      <c r="D529" s="39"/>
+      <c r="D529" s="39">
+        <v>2</v>
+      </c>
       <c r="E529" s="9"/>
       <c r="F529" s="20"/>
       <c r="G529" s="42">
@@ -13341,41 +13354,41 @@
       <c r="H529" s="39"/>
       <c r="I529" s="9"/>
       <c r="J529" s="11"/>
-      <c r="K529" s="20"/>
+      <c r="K529" s="20" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A530" s="40">
-        <v>45260</v>
-      </c>
-      <c r="B530" s="20"/>
-      <c r="C530" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A530" s="40"/>
+      <c r="B530" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C530" s="13"/>
       <c r="D530" s="39"/>
       <c r="E530" s="9"/>
       <c r="F530" s="20"/>
-      <c r="G530" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H530" s="39"/>
+      <c r="G530" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H530" s="39">
+        <v>1</v>
+      </c>
       <c r="I530" s="9"/>
       <c r="J530" s="11"/>
-      <c r="K530" s="20"/>
+      <c r="K530" s="49">
+        <v>45198</v>
+      </c>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
-        <v>45291</v>
-      </c>
-      <c r="B531" s="20" t="s">
-        <v>133</v>
-      </c>
+        <v>45260</v>
+      </c>
+      <c r="B531" s="20"/>
       <c r="C531" s="13">
         <v>1.25</v>
       </c>
-      <c r="D531" s="39">
-        <v>5</v>
-      </c>
+      <c r="D531" s="39"/>
       <c r="E531" s="9"/>
       <c r="F531" s="20"/>
       <c r="G531" s="42">
@@ -13388,12 +13401,16 @@
       <c r="K531" s="20"/>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A532" s="48" t="s">
-        <v>295</v>
-      </c>
-      <c r="B532" s="20"/>
+      <c r="A532" s="40">
+        <v>45291</v>
+      </c>
+      <c r="B532" s="20" t="s">
+        <v>275</v>
+      </c>
       <c r="C532" s="13"/>
-      <c r="D532" s="39"/>
+      <c r="D532" s="39">
+        <v>3</v>
+      </c>
       <c r="E532" s="9"/>
       <c r="F532" s="20"/>
       <c r="G532" s="42" t="str">
@@ -13403,42 +13420,44 @@
       <c r="H532" s="39"/>
       <c r="I532" s="9"/>
       <c r="J532" s="11"/>
-      <c r="K532" s="20"/>
+      <c r="K532" s="20" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A533" s="40">
-        <v>45322</v>
-      </c>
-      <c r="B533" s="20"/>
-      <c r="C533" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A533" s="40"/>
+      <c r="B533" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C533" s="13"/>
       <c r="D533" s="39"/>
       <c r="E533" s="9"/>
       <c r="F533" s="20"/>
-      <c r="G533" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H533" s="39"/>
+      <c r="G533" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H533" s="39">
+        <v>6</v>
+      </c>
       <c r="I533" s="9"/>
       <c r="J533" s="11"/>
-      <c r="K533" s="20"/>
+      <c r="K533" s="20" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A534" s="40">
-        <v>45351</v>
+      <c r="A534" s="48" t="s">
+        <v>295</v>
       </c>
       <c r="B534" s="20"/>
-      <c r="C534" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C534" s="13"/>
       <c r="D534" s="39"/>
       <c r="E534" s="9"/>
       <c r="F534" s="20"/>
-      <c r="G534" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G534" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H534" s="39"/>
       <c r="I534" s="9"/>
@@ -13447,18 +13466,16 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
-        <v>45382</v>
+        <v>45322</v>
       </c>
       <c r="B535" s="20"/>
-      <c r="C535" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C535" s="13"/>
       <c r="D535" s="39"/>
       <c r="E535" s="9"/>
       <c r="F535" s="20"/>
-      <c r="G535" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G535" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H535" s="39"/>
       <c r="I535" s="9"/>
@@ -13467,18 +13484,16 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
-        <v>45412</v>
+        <v>45351</v>
       </c>
       <c r="B536" s="20"/>
-      <c r="C536" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C536" s="13"/>
       <c r="D536" s="39"/>
       <c r="E536" s="9"/>
       <c r="F536" s="20"/>
-      <c r="G536" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G536" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H536" s="39"/>
       <c r="I536" s="9"/>
@@ -13487,18 +13502,16 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
-        <v>45443</v>
+        <v>45382</v>
       </c>
       <c r="B537" s="20"/>
-      <c r="C537" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C537" s="13"/>
       <c r="D537" s="39"/>
       <c r="E537" s="9"/>
       <c r="F537" s="20"/>
-      <c r="G537" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G537" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H537" s="39"/>
       <c r="I537" s="9"/>
@@ -13507,18 +13520,16 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
-        <v>45473</v>
+        <v>45412</v>
       </c>
       <c r="B538" s="20"/>
-      <c r="C538" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C538" s="13"/>
       <c r="D538" s="39"/>
       <c r="E538" s="9"/>
       <c r="F538" s="20"/>
-      <c r="G538" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G538" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H538" s="39"/>
       <c r="I538" s="9"/>
@@ -13527,18 +13538,16 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
-        <v>45504</v>
+        <v>45443</v>
       </c>
       <c r="B539" s="20"/>
-      <c r="C539" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C539" s="13"/>
       <c r="D539" s="39"/>
       <c r="E539" s="9"/>
       <c r="F539" s="20"/>
-      <c r="G539" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G539" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H539" s="39"/>
       <c r="I539" s="9"/>
@@ -13547,18 +13556,16 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
-        <v>45535</v>
+        <v>45473</v>
       </c>
       <c r="B540" s="20"/>
-      <c r="C540" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C540" s="13"/>
       <c r="D540" s="39"/>
       <c r="E540" s="9"/>
       <c r="F540" s="20"/>
-      <c r="G540" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G540" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H540" s="39"/>
       <c r="I540" s="9"/>
@@ -13567,18 +13574,16 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
-        <v>45565</v>
+        <v>45504</v>
       </c>
       <c r="B541" s="20"/>
-      <c r="C541" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C541" s="13"/>
       <c r="D541" s="39"/>
       <c r="E541" s="9"/>
       <c r="F541" s="20"/>
-      <c r="G541" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G541" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H541" s="39"/>
       <c r="I541" s="9"/>
@@ -13587,18 +13592,16 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
-        <v>45596</v>
+        <v>45535</v>
       </c>
       <c r="B542" s="20"/>
-      <c r="C542" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C542" s="13"/>
       <c r="D542" s="39"/>
       <c r="E542" s="9"/>
       <c r="F542" s="20"/>
-      <c r="G542" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G542" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H542" s="39"/>
       <c r="I542" s="9"/>
@@ -13606,7 +13609,9 @@
       <c r="K542" s="20"/>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A543" s="40"/>
+      <c r="A543" s="40">
+        <v>45565</v>
+      </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
       <c r="D543" s="39"/>
@@ -13622,7 +13627,9 @@
       <c r="K543" s="20"/>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A544" s="40"/>
+      <c r="A544" s="40">
+        <v>45596</v>
+      </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
       <c r="D544" s="39"/>
@@ -14390,20 +14397,52 @@
       <c r="K591" s="20"/>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A592" s="41"/>
-      <c r="B592" s="15"/>
-      <c r="C592" s="42"/>
-      <c r="D592" s="43"/>
-      <c r="E592" s="51"/>
-      <c r="F592" s="15"/>
+      <c r="A592" s="40"/>
+      <c r="B592" s="20"/>
+      <c r="C592" s="13"/>
+      <c r="D592" s="39"/>
+      <c r="E592" s="9"/>
+      <c r="F592" s="20"/>
       <c r="G592" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H592" s="43"/>
-      <c r="I592" s="51"/>
-      <c r="J592" s="12"/>
-      <c r="K592" s="15"/>
+      <c r="H592" s="39"/>
+      <c r="I592" s="9"/>
+      <c r="J592" s="11"/>
+      <c r="K592" s="20"/>
+    </row>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A593" s="40"/>
+      <c r="B593" s="20"/>
+      <c r="C593" s="13"/>
+      <c r="D593" s="39"/>
+      <c r="E593" s="9"/>
+      <c r="F593" s="20"/>
+      <c r="G593" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H593" s="39"/>
+      <c r="I593" s="9"/>
+      <c r="J593" s="11"/>
+      <c r="K593" s="20"/>
+    </row>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A594" s="41"/>
+      <c r="B594" s="15"/>
+      <c r="C594" s="42"/>
+      <c r="D594" s="43"/>
+      <c r="E594" s="51"/>
+      <c r="F594" s="15"/>
+      <c r="G594" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H594" s="43"/>
+      <c r="I594" s="51"/>
+      <c r="J594" s="12"/>
+      <c r="K594" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
